--- a/Code/Results/Cases/Case_10_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_10_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24678805718557</v>
+        <v>24.44307359118704</v>
       </c>
       <c r="C2">
-        <v>19.79684940052508</v>
+        <v>18.84945595138836</v>
       </c>
       <c r="D2">
-        <v>9.442240316330984</v>
+        <v>10.02066305241336</v>
       </c>
       <c r="E2">
-        <v>30.67466357065959</v>
+        <v>29.10526702065993</v>
       </c>
       <c r="F2">
-        <v>63.54804827132347</v>
+        <v>63.03962927701833</v>
       </c>
       <c r="G2">
-        <v>2.010439868272769</v>
+        <v>2.074527469938671</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.089966362669392</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.037267292020123</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -462,34 +468,40 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.21958043420728</v>
+        <v>22.75403469952843</v>
       </c>
       <c r="C3">
-        <v>18.26974872213662</v>
+        <v>17.53033396951019</v>
       </c>
       <c r="D3">
-        <v>8.914116238228157</v>
+        <v>9.477274155190834</v>
       </c>
       <c r="E3">
-        <v>28.2244039492688</v>
+        <v>27.02775996347093</v>
       </c>
       <c r="F3">
-        <v>59.22243557171265</v>
+        <v>59.07048019432784</v>
       </c>
       <c r="G3">
-        <v>2.029395341366887</v>
+        <v>2.084514762941586</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.711583836633365</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.666704839883651</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -509,34 +521,40 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.930789809534</v>
+        <v>21.65952378285824</v>
       </c>
       <c r="C4">
-        <v>17.30170589585188</v>
+        <v>16.68690558818472</v>
       </c>
       <c r="D4">
-        <v>8.588640760384001</v>
+        <v>9.126601439550928</v>
       </c>
       <c r="E4">
-        <v>26.67941584961203</v>
+        <v>25.68821643124625</v>
       </c>
       <c r="F4">
-        <v>56.51277687824792</v>
+        <v>56.50830951348823</v>
       </c>
       <c r="G4">
-        <v>2.041032923588916</v>
+        <v>2.090765124095499</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.473648940128331</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.509508808433992</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -556,34 +574,40 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.39372297482674</v>
+        <v>21.19839618377675</v>
       </c>
       <c r="C5">
-        <v>16.89888094117254</v>
+        <v>16.35017261237931</v>
       </c>
       <c r="D5">
-        <v>8.455562333510173</v>
+        <v>8.962248306382884</v>
       </c>
       <c r="E5">
-        <v>26.03828905836542</v>
+        <v>25.1250067760214</v>
       </c>
       <c r="F5">
-        <v>55.39410197988848</v>
+        <v>55.35697436933109</v>
       </c>
       <c r="G5">
-        <v>2.045788770045434</v>
+        <v>2.093373239817404</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.374520949779008</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.613255113535315</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -603,34 +627,40 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.30380541782452</v>
+        <v>21.12034009970148</v>
       </c>
       <c r="C6">
-        <v>16.83147007907164</v>
+        <v>16.31276175098225</v>
       </c>
       <c r="D6">
-        <v>8.43343485181971</v>
+        <v>8.913715193426158</v>
       </c>
       <c r="E6">
-        <v>25.93109875840167</v>
+        <v>25.02928931015711</v>
       </c>
       <c r="F6">
-        <v>55.20745322129684</v>
+        <v>55.07122712887607</v>
       </c>
       <c r="G6">
-        <v>2.046579647295397</v>
+        <v>2.093843404499031</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.357148475066212</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.635588437125068</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -650,34 +680,40 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92359577425717</v>
+        <v>21.65169548959532</v>
       </c>
       <c r="C7">
-        <v>17.29630786899273</v>
+        <v>16.73292013436325</v>
       </c>
       <c r="D7">
-        <v>8.5868479638106</v>
+        <v>9.067926423508622</v>
       </c>
       <c r="E7">
-        <v>26.67081769861645</v>
+        <v>25.67736305216642</v>
       </c>
       <c r="F7">
-        <v>56.49774957047094</v>
+        <v>56.24481937174074</v>
       </c>
       <c r="G7">
-        <v>2.041096991607672</v>
+        <v>2.090896024981767</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.470075046960208</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.524493452909088</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -697,34 +733,40 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.55643791326133</v>
+        <v>23.870143067299</v>
       </c>
       <c r="C8">
-        <v>19.27615912934608</v>
+        <v>18.46235242138411</v>
       </c>
       <c r="D8">
-        <v>9.260289089134478</v>
+        <v>9.765799130928215</v>
       </c>
       <c r="E8">
-        <v>29.83734108505769</v>
+        <v>28.39744764467337</v>
       </c>
       <c r="F8">
-        <v>62.06700749867034</v>
+        <v>61.38995501941691</v>
       </c>
       <c r="G8">
-        <v>2.016984953209485</v>
+        <v>2.078075537225312</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.957617360055809</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.908925381665187</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -744,34 +786,40 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.41370968656153</v>
+        <v>27.77635781228673</v>
       </c>
       <c r="C9">
-        <v>22.95616959896649</v>
+        <v>21.51752086636726</v>
       </c>
       <c r="D9">
-        <v>10.58149212437364</v>
+        <v>11.09435833615976</v>
       </c>
       <c r="E9">
-        <v>35.80129715655028</v>
+        <v>33.24354161310295</v>
       </c>
       <c r="F9">
-        <v>72.63218803581518</v>
+        <v>70.89697344570428</v>
       </c>
       <c r="G9">
-        <v>1.968923078333752</v>
+        <v>2.053570185398751</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.877518438033591</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.818003966742009</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -791,34 +839,40 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.87605203283832</v>
+        <v>30.36896984993525</v>
       </c>
       <c r="C10">
-        <v>25.60710150872071</v>
+        <v>23.60291155827736</v>
       </c>
       <c r="D10">
-        <v>11.57442240581359</v>
+        <v>11.73454473692673</v>
       </c>
       <c r="E10">
-        <v>40.1748490172909</v>
+        <v>35.62103610224544</v>
       </c>
       <c r="F10">
-        <v>80.54051721636908</v>
+        <v>76.20990935265392</v>
       </c>
       <c r="G10">
-        <v>1.931726294619023</v>
+        <v>2.036709757866656</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.482358605421413</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.449622519871673</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -838,34 +892,40 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.45422905916183</v>
+        <v>31.36121202343197</v>
       </c>
       <c r="C11">
-        <v>26.82484214780176</v>
+        <v>24.30366210427836</v>
       </c>
       <c r="D11">
-        <v>12.03904925477299</v>
+        <v>9.970562816033523</v>
       </c>
       <c r="E11">
-        <v>42.21059482593153</v>
+        <v>29.02521488677462</v>
       </c>
       <c r="F11">
-        <v>84.18346965236199</v>
+        <v>69.78476296936714</v>
       </c>
       <c r="G11">
-        <v>1.913929765371231</v>
+        <v>2.03570407727512</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.790747882991368</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.510909130059678</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -885,34 +945,40 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.05549049343355</v>
+        <v>31.68585877720369</v>
       </c>
       <c r="C12">
-        <v>27.29052468993865</v>
+        <v>24.44128593523203</v>
       </c>
       <c r="D12">
-        <v>12.21789564228058</v>
+        <v>8.470649040072542</v>
       </c>
       <c r="E12">
-        <v>42.99415990142951</v>
+        <v>23.0426619106675</v>
       </c>
       <c r="F12">
-        <v>85.57443696643972</v>
+        <v>63.59460163662632</v>
       </c>
       <c r="G12">
-        <v>1.907007552749045</v>
+        <v>2.037548408334782</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.512775492837027</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.456295562001463</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -932,34 +998,40 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.92577224411583</v>
+        <v>31.52803904234584</v>
       </c>
       <c r="C13">
-        <v>27.18997185068548</v>
+        <v>24.22003956114179</v>
       </c>
       <c r="D13">
-        <v>12.17922750502245</v>
+        <v>7.009883965657012</v>
       </c>
       <c r="E13">
-        <v>42.82471849117065</v>
+        <v>17.05336036085701</v>
       </c>
       <c r="F13">
-        <v>85.27421405460521</v>
+        <v>56.73539812628097</v>
       </c>
       <c r="G13">
-        <v>1.90850766548506</v>
+        <v>2.041798004963339</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.450362237943956</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.308155851271346</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -979,34 +1051,40 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.503599680102</v>
+        <v>31.20074615630609</v>
       </c>
       <c r="C14">
-        <v>26.86304268634484</v>
+        <v>23.91840789243268</v>
       </c>
       <c r="D14">
-        <v>12.05369738572334</v>
+        <v>6.025607134096393</v>
       </c>
       <c r="E14">
-        <v>42.27476186777458</v>
+        <v>12.91878041738623</v>
       </c>
       <c r="F14">
-        <v>84.29762506640796</v>
+        <v>51.49898527829699</v>
       </c>
       <c r="G14">
-        <v>1.913364344850408</v>
+        <v>2.045765259257151</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.201276089694248</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.16614545595082</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1026,34 +1104,40 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.24559565407764</v>
+        <v>31.01509405687257</v>
       </c>
       <c r="C15">
-        <v>26.66348472232198</v>
+        <v>23.77999269105106</v>
       </c>
       <c r="D15">
-        <v>11.97722265277049</v>
+        <v>5.778124340762592</v>
       </c>
       <c r="E15">
-        <v>41.93976813747312</v>
+        <v>11.90505057293832</v>
       </c>
       <c r="F15">
-        <v>83.70118603006244</v>
+        <v>49.98084492291337</v>
       </c>
       <c r="G15">
-        <v>1.916313299920919</v>
+        <v>2.047349627796285</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.37155626470092</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.109105430901421</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1073,34 +1157,40 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.77322494453298</v>
+        <v>29.98938299365462</v>
       </c>
       <c r="C16">
-        <v>25.52797788720428</v>
+        <v>23.00271204771266</v>
       </c>
       <c r="D16">
-        <v>11.5443983169956</v>
+        <v>5.728103560500506</v>
       </c>
       <c r="E16">
-        <v>40.04320168908147</v>
+        <v>11.57793924659197</v>
       </c>
       <c r="F16">
-        <v>80.30360017115548</v>
+        <v>48.56665406277664</v>
       </c>
       <c r="G16">
-        <v>1.932867294210722</v>
+        <v>2.053498711515744</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.055752869198356</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.877767251533557</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1120,34 +1210,40 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.87271381570726</v>
+        <v>29.36448092993919</v>
       </c>
       <c r="C17">
-        <v>24.83613507090051</v>
+        <v>22.55793443121987</v>
       </c>
       <c r="D17">
-        <v>11.28281053043283</v>
+        <v>6.19513540705</v>
       </c>
       <c r="E17">
-        <v>38.89516505701508</v>
+        <v>13.59355848671587</v>
       </c>
       <c r="F17">
-        <v>78.2313357347299</v>
+        <v>50.37157133274903</v>
       </c>
       <c r="G17">
-        <v>1.942763750988347</v>
+        <v>2.056209579269872</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.353811635908204</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.772518732282649</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1167,34 +1263,40 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.35481734302617</v>
+        <v>29.0326828153557</v>
       </c>
       <c r="C18">
-        <v>24.43910093995113</v>
+        <v>22.33313476896589</v>
       </c>
       <c r="D18">
-        <v>11.13348911491293</v>
+        <v>7.282784649532969</v>
       </c>
       <c r="E18">
-        <v>38.23872953363013</v>
+        <v>18.16992540045136</v>
       </c>
       <c r="F18">
-        <v>77.04173180354569</v>
+        <v>55.3707338003543</v>
       </c>
       <c r="G18">
-        <v>1.948377868415365</v>
+        <v>2.055887887705688</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.333293727927019</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.773529732633144</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1214,34 +1316,40 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.17939591197614</v>
+        <v>28.97345199471054</v>
       </c>
       <c r="C19">
-        <v>24.30475469442337</v>
+        <v>22.4033883500889</v>
       </c>
       <c r="D19">
-        <v>11.08310118995642</v>
+        <v>8.790375362995041</v>
       </c>
       <c r="E19">
-        <v>38.01699054411644</v>
+        <v>24.53208797344972</v>
       </c>
       <c r="F19">
-        <v>76.63917250456655</v>
+        <v>62.1806771869171</v>
       </c>
       <c r="G19">
-        <v>1.950266731702656</v>
+        <v>2.052752511625638</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.411514987705797</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.879578676368524</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1261,34 +1369,40 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.96854963280244</v>
+        <v>29.69820850587216</v>
       </c>
       <c r="C20">
-        <v>24.90967278290232</v>
+        <v>23.17917654727976</v>
       </c>
       <c r="D20">
-        <v>11.31053303980021</v>
+        <v>11.41151704201456</v>
       </c>
       <c r="E20">
-        <v>39.01693697066612</v>
+        <v>34.95363493126855</v>
       </c>
       <c r="F20">
-        <v>78.45164968891322</v>
+        <v>74.17869503357267</v>
       </c>
       <c r="G20">
-        <v>1.941718685537057</v>
+        <v>2.041462083656163</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.314225926561374</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.278525854025554</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1308,34 +1422,40 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.6274717944293</v>
+        <v>31.63458094084674</v>
       </c>
       <c r="C21">
-        <v>26.95891802727061</v>
+        <v>24.75784781552005</v>
       </c>
       <c r="D21">
-        <v>12.09047941382316</v>
+        <v>12.27927442675885</v>
       </c>
       <c r="E21">
-        <v>42.43589318647892</v>
+        <v>38.09980501401512</v>
       </c>
       <c r="F21">
-        <v>84.58409143282279</v>
+        <v>79.78419766314934</v>
       </c>
       <c r="G21">
-        <v>1.911943352712931</v>
+        <v>2.027249542232134</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.857352354950227</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.805519619189777</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1355,34 +1475,40 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.38893267083115</v>
+        <v>32.85232260185697</v>
       </c>
       <c r="C22">
-        <v>28.32698059617297</v>
+        <v>25.7093163221756</v>
       </c>
       <c r="D22">
-        <v>12.61797675994057</v>
+        <v>12.77195792536501</v>
       </c>
       <c r="E22">
-        <v>44.7491161665681</v>
+        <v>39.65220401541557</v>
       </c>
       <c r="F22">
-        <v>88.66440359819417</v>
+        <v>83.08140148289172</v>
       </c>
       <c r="G22">
-        <v>1.891371730508755</v>
+        <v>2.018208876805866</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.187829086509634</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.140100061090803</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1402,34 +1528,40 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.44523670829629</v>
+        <v>32.20893271165753</v>
       </c>
       <c r="C23">
-        <v>27.59292849431206</v>
+        <v>25.16305894123705</v>
       </c>
       <c r="D23">
-        <v>12.3343483208511</v>
+        <v>12.56410863771151</v>
       </c>
       <c r="E23">
-        <v>43.50458967050593</v>
+        <v>38.83252030482961</v>
       </c>
       <c r="F23">
-        <v>86.47688851490064</v>
+        <v>81.55397815487034</v>
       </c>
       <c r="G23">
-        <v>1.902478127042289</v>
+        <v>2.022918405131028</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.014325094539056</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.96347957896903</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1449,34 +1581,40 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.92522304524128</v>
+        <v>29.68185813993916</v>
       </c>
       <c r="C24">
-        <v>24.87642435347673</v>
+        <v>23.11238178875517</v>
       </c>
       <c r="D24">
-        <v>11.29799643622048</v>
+        <v>11.66976099974378</v>
       </c>
       <c r="E24">
-        <v>38.96187313677655</v>
+        <v>35.63223609375809</v>
       </c>
       <c r="F24">
-        <v>78.35204073660913</v>
+        <v>75.24053863113274</v>
       </c>
       <c r="G24">
-        <v>1.942191390765354</v>
+        <v>2.04088703992831</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.351378196554124</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.293550467567776</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1496,34 +1634,40 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.12536297092025</v>
+        <v>26.76275660477796</v>
       </c>
       <c r="C25">
-        <v>21.97609435544717</v>
+        <v>20.79094544270774</v>
       </c>
       <c r="D25">
-        <v>10.22222143521088</v>
+        <v>10.65831984704363</v>
       </c>
       <c r="E25">
-        <v>34.20189188957374</v>
+        <v>31.97679880725834</v>
       </c>
       <c r="F25">
-        <v>69.79983567977006</v>
+        <v>68.04404505137312</v>
       </c>
       <c r="G25">
-        <v>1.982132171959193</v>
+        <v>2.060308407478158</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.628166126820007</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.571692568677724</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_10_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_10_0/res_line/loading_percent.xlsx
@@ -427,28 +427,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.44307359118704</v>
+        <v>29.12242425684365</v>
       </c>
       <c r="C2">
-        <v>18.84945595138836</v>
+        <v>23.02353161545612</v>
       </c>
       <c r="D2">
-        <v>10.02066305241336</v>
+        <v>5.457562313420514</v>
       </c>
       <c r="E2">
-        <v>29.10526702065993</v>
+        <v>29.30942974478529</v>
       </c>
       <c r="F2">
-        <v>63.03962927701833</v>
+        <v>42.83252900737337</v>
       </c>
       <c r="G2">
-        <v>2.074527469938671</v>
+        <v>2.069037592771776</v>
       </c>
       <c r="H2">
-        <v>3.089966362669392</v>
+        <v>3.219152413621614</v>
       </c>
       <c r="I2">
-        <v>3.037267292020123</v>
+        <v>3.413434991520969</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>13.37876734696289</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -480,28 +480,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.75403469952843</v>
+        <v>27.1374243989585</v>
       </c>
       <c r="C3">
-        <v>17.53033396951019</v>
+        <v>21.40733941091886</v>
       </c>
       <c r="D3">
-        <v>9.477274155190834</v>
+        <v>5.337267986424786</v>
       </c>
       <c r="E3">
-        <v>27.02775996347093</v>
+        <v>27.25656006138376</v>
       </c>
       <c r="F3">
-        <v>59.07048019432784</v>
+        <v>40.45473511116975</v>
       </c>
       <c r="G3">
-        <v>2.084514762941586</v>
+        <v>2.078198967281577</v>
       </c>
       <c r="H3">
-        <v>2.711583836633365</v>
+        <v>2.859703050369023</v>
       </c>
       <c r="I3">
-        <v>2.666704839883651</v>
+        <v>3.074111969351026</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>13.44169929310584</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -533,28 +533,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.65952378285824</v>
+        <v>25.87105930567509</v>
       </c>
       <c r="C4">
-        <v>16.68690558818472</v>
+        <v>20.36552448339359</v>
       </c>
       <c r="D4">
-        <v>9.126601439550928</v>
+        <v>5.260392023805906</v>
       </c>
       <c r="E4">
-        <v>25.68821643124625</v>
+        <v>25.9310335883985</v>
       </c>
       <c r="F4">
-        <v>56.50830951348823</v>
+        <v>38.9386664220199</v>
       </c>
       <c r="G4">
-        <v>2.090765124095499</v>
+        <v>2.083948925629955</v>
       </c>
       <c r="H4">
-        <v>2.473648940128331</v>
+        <v>2.633168838164859</v>
       </c>
       <c r="I4">
-        <v>2.509508808433992</v>
+        <v>2.861811536839314</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>13.48005957020183</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -586,28 +586,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.19839618377675</v>
+        <v>25.32578769390431</v>
       </c>
       <c r="C5">
-        <v>16.35017261237931</v>
+        <v>19.93426239784606</v>
       </c>
       <c r="D5">
-        <v>8.962248306382884</v>
+        <v>5.224182377235195</v>
       </c>
       <c r="E5">
-        <v>25.1250067760214</v>
+        <v>25.37362898793707</v>
       </c>
       <c r="F5">
-        <v>55.35697436933109</v>
+        <v>38.28229444321997</v>
       </c>
       <c r="G5">
-        <v>2.093373239817404</v>
+        <v>2.086343736601319</v>
       </c>
       <c r="H5">
-        <v>2.374520949779008</v>
+        <v>2.538891211510318</v>
       </c>
       <c r="I5">
-        <v>2.613255113535315</v>
+        <v>2.774232242323455</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>13.49076358101514</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -639,28 +639,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.12034009970148</v>
+        <v>25.21926499381419</v>
       </c>
       <c r="C6">
-        <v>16.31276175098225</v>
+        <v>19.86909335459384</v>
       </c>
       <c r="D6">
-        <v>8.913715193426158</v>
+        <v>5.213083032900629</v>
       </c>
       <c r="E6">
-        <v>25.02928931015711</v>
+        <v>25.27925579919151</v>
       </c>
       <c r="F6">
-        <v>55.07122712887607</v>
+        <v>38.14214131045867</v>
       </c>
       <c r="G6">
-        <v>2.093843404499031</v>
+        <v>2.086765773327855</v>
       </c>
       <c r="H6">
-        <v>2.357148475066212</v>
+        <v>2.522620236960007</v>
       </c>
       <c r="I6">
-        <v>2.635588437125068</v>
+        <v>2.759813657969449</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>13.48663518098441</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -692,28 +692,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.65169548959532</v>
+        <v>25.82386594742595</v>
       </c>
       <c r="C7">
-        <v>16.73292013436325</v>
+        <v>20.37891803677698</v>
       </c>
       <c r="D7">
-        <v>9.067926423508622</v>
+        <v>5.24621841167165</v>
       </c>
       <c r="E7">
-        <v>25.67736305216642</v>
+        <v>25.92137325416789</v>
       </c>
       <c r="F7">
-        <v>56.24481937174074</v>
+        <v>38.84853422600711</v>
       </c>
       <c r="G7">
-        <v>2.090896024981767</v>
+        <v>2.084041586545941</v>
       </c>
       <c r="H7">
-        <v>2.470075046960208</v>
+        <v>2.630487630487425</v>
       </c>
       <c r="I7">
-        <v>2.524493452909088</v>
+        <v>2.860669597260886</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>13.46411645950251</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -745,28 +745,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.870143067299</v>
+        <v>28.39101441007527</v>
       </c>
       <c r="C8">
-        <v>18.46235242138411</v>
+        <v>22.49958675012746</v>
       </c>
       <c r="D8">
-        <v>9.765799130928215</v>
+        <v>5.398999121240402</v>
       </c>
       <c r="E8">
-        <v>28.39744764467337</v>
+        <v>28.61202614888293</v>
       </c>
       <c r="F8">
-        <v>61.38995501941691</v>
+        <v>41.92355994330617</v>
       </c>
       <c r="G8">
-        <v>2.078075537225312</v>
+        <v>2.072250082095517</v>
       </c>
       <c r="H8">
-        <v>2.957617360055809</v>
+        <v>3.094540212180184</v>
       </c>
       <c r="I8">
-        <v>2.908925381665187</v>
+        <v>3.296299062931547</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>13.3793457196131</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.77635781228673</v>
+        <v>33.0895634734422</v>
       </c>
       <c r="C9">
-        <v>21.51752086636726</v>
+        <v>26.24400022884295</v>
       </c>
       <c r="D9">
-        <v>11.09435833615976</v>
+        <v>5.698493296056921</v>
       </c>
       <c r="E9">
-        <v>33.24354161310295</v>
+        <v>33.386799994948</v>
       </c>
       <c r="F9">
-        <v>70.89697344570428</v>
+        <v>47.63182860177298</v>
       </c>
       <c r="G9">
-        <v>2.053570185398751</v>
+        <v>2.049914329690132</v>
       </c>
       <c r="H9">
-        <v>3.877518438033591</v>
+        <v>3.964171270026597</v>
       </c>
       <c r="I9">
-        <v>3.818003966742009</v>
+        <v>4.12457982399691</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>13.24067711716932</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -851,28 +851,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.36896984993525</v>
+        <v>36.0434723756846</v>
       </c>
       <c r="C10">
-        <v>23.60291155827736</v>
+        <v>28.63441750164197</v>
       </c>
       <c r="D10">
-        <v>11.73454473692673</v>
+        <v>5.830995088903073</v>
       </c>
       <c r="E10">
-        <v>35.62103610224544</v>
+        <v>35.71059044858454</v>
       </c>
       <c r="F10">
-        <v>76.20990935265392</v>
+        <v>51.13791178948935</v>
       </c>
       <c r="G10">
-        <v>2.036709757866656</v>
+        <v>2.034521241778429</v>
       </c>
       <c r="H10">
-        <v>4.482358605421413</v>
+        <v>4.534438610626464</v>
       </c>
       <c r="I10">
-        <v>4.449622519871673</v>
+        <v>4.698664340282644</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>13.06500675699586</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -904,28 +904,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.36121202343197</v>
+        <v>36.02269999258484</v>
       </c>
       <c r="C11">
-        <v>24.30366210427836</v>
+        <v>28.45708531374927</v>
       </c>
       <c r="D11">
-        <v>9.970562816033523</v>
+        <v>5.314150617902084</v>
       </c>
       <c r="E11">
-        <v>29.02521488677462</v>
+        <v>29.16197763703897</v>
       </c>
       <c r="F11">
-        <v>69.78476296936714</v>
+        <v>49.38345475826942</v>
       </c>
       <c r="G11">
-        <v>2.03570407727512</v>
+        <v>2.03254108020656</v>
       </c>
       <c r="H11">
-        <v>4.790747882991368</v>
+        <v>4.85817995592064</v>
       </c>
       <c r="I11">
-        <v>4.510909130059678</v>
+        <v>4.774015261544365</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>12.41367954742661</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -957,28 +957,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.68585877720369</v>
+        <v>35.45132614581257</v>
       </c>
       <c r="C12">
-        <v>24.44128593523203</v>
+        <v>27.80348711356223</v>
       </c>
       <c r="D12">
-        <v>8.470649040072542</v>
+        <v>4.902634528648329</v>
       </c>
       <c r="E12">
-        <v>23.0426619106675</v>
+        <v>23.22781200176598</v>
       </c>
       <c r="F12">
-        <v>63.59460163662632</v>
+        <v>47.2578856750118</v>
       </c>
       <c r="G12">
-        <v>2.037548408334782</v>
+        <v>2.033596121678061</v>
       </c>
       <c r="H12">
-        <v>5.512775492837027</v>
+        <v>5.582613299285839</v>
       </c>
       <c r="I12">
-        <v>4.456295562001463</v>
+        <v>4.732397001373103</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>11.97410097664093</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1010,28 +1010,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.52803904234584</v>
+        <v>34.36056989042019</v>
       </c>
       <c r="C13">
-        <v>24.22003956114179</v>
+        <v>26.74867764636883</v>
       </c>
       <c r="D13">
-        <v>7.009883965657012</v>
+        <v>4.535521992404589</v>
       </c>
       <c r="E13">
-        <v>17.05336036085701</v>
+        <v>17.30423646035947</v>
       </c>
       <c r="F13">
-        <v>56.73539812628097</v>
+        <v>44.55714983913662</v>
       </c>
       <c r="G13">
-        <v>2.041798004963339</v>
+        <v>2.037103107177901</v>
       </c>
       <c r="H13">
-        <v>6.450362237943956</v>
+        <v>6.5172900259235</v>
       </c>
       <c r="I13">
-        <v>4.308155851271346</v>
+        <v>4.598145302969217</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>11.65383825406395</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1063,28 +1063,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.20074615630609</v>
+        <v>33.34101321820851</v>
       </c>
       <c r="C14">
-        <v>23.91840789243268</v>
+        <v>25.82294158201565</v>
       </c>
       <c r="D14">
-        <v>6.025607134096393</v>
+        <v>4.309114174977028</v>
       </c>
       <c r="E14">
-        <v>12.91878041738623</v>
+        <v>13.23754183903135</v>
       </c>
       <c r="F14">
-        <v>51.49898527829699</v>
+        <v>42.3561915673402</v>
       </c>
       <c r="G14">
-        <v>2.045765259257151</v>
+        <v>2.040608279471432</v>
       </c>
       <c r="H14">
-        <v>7.201276089694248</v>
+        <v>7.264252431868699</v>
       </c>
       <c r="I14">
-        <v>4.16614545595082</v>
+        <v>4.464898670560597</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>11.49213779797367</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1116,28 +1116,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.01509405687257</v>
+        <v>32.9648862501232</v>
       </c>
       <c r="C15">
-        <v>23.77999269105106</v>
+        <v>25.51230040168827</v>
       </c>
       <c r="D15">
-        <v>5.778124340762592</v>
+        <v>4.257088291712681</v>
       </c>
       <c r="E15">
-        <v>11.90505057293832</v>
+        <v>12.24706028960986</v>
       </c>
       <c r="F15">
-        <v>49.98084492291337</v>
+        <v>41.66581721299364</v>
       </c>
       <c r="G15">
-        <v>2.047349627796285</v>
+        <v>2.042053549585688</v>
       </c>
       <c r="H15">
-        <v>7.37155626470092</v>
+        <v>7.433725654074647</v>
       </c>
       <c r="I15">
-        <v>4.109105430901421</v>
+        <v>4.411213507189735</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>11.46914446365359</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1169,28 +1169,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.98938299365462</v>
+        <v>31.87608673764142</v>
       </c>
       <c r="C16">
-        <v>23.00271204771266</v>
+        <v>24.67704261173039</v>
       </c>
       <c r="D16">
-        <v>5.728103560500506</v>
+        <v>4.270210178006453</v>
       </c>
       <c r="E16">
-        <v>11.57793924659197</v>
+        <v>11.94105676579287</v>
       </c>
       <c r="F16">
-        <v>48.56665406277664</v>
+        <v>40.52409631443208</v>
       </c>
       <c r="G16">
-        <v>2.053498711515744</v>
+        <v>2.047802731150009</v>
       </c>
       <c r="H16">
-        <v>7.055752869198356</v>
+        <v>7.12150906140563</v>
       </c>
       <c r="I16">
-        <v>3.877767251533557</v>
+        <v>4.199051954891138</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>11.6109875496389</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1222,28 +1222,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.36448092993919</v>
+        <v>31.59081828550146</v>
       </c>
       <c r="C17">
-        <v>22.55793443121987</v>
+        <v>24.54023630133161</v>
       </c>
       <c r="D17">
-        <v>6.19513540705</v>
+        <v>4.392134655494539</v>
       </c>
       <c r="E17">
-        <v>13.59355848671587</v>
+        <v>13.92327043899569</v>
       </c>
       <c r="F17">
-        <v>50.37157133274903</v>
+        <v>40.8602284027189</v>
       </c>
       <c r="G17">
-        <v>2.056209579269872</v>
+        <v>2.050415076146294</v>
       </c>
       <c r="H17">
-        <v>6.353811635908204</v>
+        <v>6.426382675262424</v>
       </c>
       <c r="I17">
-        <v>3.772518732282649</v>
+        <v>4.104955505081555</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>11.7975146447877</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1275,28 +1275,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.0326828153557</v>
+        <v>32.01266221312296</v>
       </c>
       <c r="C18">
-        <v>22.33313476896589</v>
+        <v>24.99574270966277</v>
       </c>
       <c r="D18">
-        <v>7.282784649532969</v>
+        <v>4.659682672957626</v>
       </c>
       <c r="E18">
-        <v>18.16992540045136</v>
+        <v>18.43728141267208</v>
       </c>
       <c r="F18">
-        <v>55.3707338003543</v>
+        <v>42.57297928984077</v>
       </c>
       <c r="G18">
-        <v>2.055887887705688</v>
+        <v>2.050369575357616</v>
       </c>
       <c r="H18">
-        <v>5.333293727927019</v>
+        <v>5.417158518650544</v>
       </c>
       <c r="I18">
-        <v>3.773529732633144</v>
+        <v>4.10792768057442</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>12.08228754755286</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1328,28 +1328,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.97345199471054</v>
+        <v>32.91428265727141</v>
       </c>
       <c r="C19">
-        <v>22.4033883500889</v>
+        <v>25.92709831785335</v>
       </c>
       <c r="D19">
-        <v>8.790375362995041</v>
+        <v>5.046921090650943</v>
       </c>
       <c r="E19">
-        <v>24.53208797344972</v>
+        <v>24.73815109591906</v>
       </c>
       <c r="F19">
-        <v>62.1806771869171</v>
+        <v>45.11864271034842</v>
       </c>
       <c r="G19">
-        <v>2.052752511625638</v>
+        <v>2.04795465780415</v>
       </c>
       <c r="H19">
-        <v>4.411514987705797</v>
+        <v>4.505350713937855</v>
       </c>
       <c r="I19">
-        <v>3.879578676368524</v>
+        <v>4.201341048233777</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>12.44996205798263</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1381,28 +1381,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.69820850587216</v>
+        <v>35.18532413088438</v>
       </c>
       <c r="C20">
-        <v>23.17917654727976</v>
+        <v>28.05782744234055</v>
       </c>
       <c r="D20">
-        <v>11.41151704201456</v>
+        <v>5.75501748214636</v>
       </c>
       <c r="E20">
-        <v>34.95363493126855</v>
+        <v>35.0635044301351</v>
       </c>
       <c r="F20">
-        <v>74.17869503357267</v>
+        <v>50.01271585242392</v>
       </c>
       <c r="G20">
-        <v>2.041462083656163</v>
+        <v>2.038744722034453</v>
       </c>
       <c r="H20">
-        <v>4.314225926561374</v>
+        <v>4.378823149754055</v>
       </c>
       <c r="I20">
-        <v>4.278525854025554</v>
+        <v>4.545497348120654</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>13.05914361158725</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.63458094084674</v>
+        <v>37.60410681397683</v>
       </c>
       <c r="C21">
-        <v>24.75784781552005</v>
+        <v>30.04120099125489</v>
       </c>
       <c r="D21">
-        <v>12.27927442675885</v>
+        <v>5.965210850010251</v>
       </c>
       <c r="E21">
-        <v>38.09980501401512</v>
+        <v>38.14978486046395</v>
       </c>
       <c r="F21">
-        <v>79.78419766314934</v>
+        <v>53.24885792036237</v>
       </c>
       <c r="G21">
-        <v>2.027249542232134</v>
+        <v>2.026048842488905</v>
       </c>
       <c r="H21">
-        <v>4.857352354950227</v>
+        <v>4.886079521493445</v>
       </c>
       <c r="I21">
-        <v>4.805519619189777</v>
+        <v>5.01815482679849</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>13.03976532144044</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1487,28 +1487,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.85232260185697</v>
+        <v>39.08938018609194</v>
       </c>
       <c r="C22">
-        <v>25.7093163221756</v>
+        <v>31.20984196780294</v>
       </c>
       <c r="D22">
-        <v>12.77195792536501</v>
+        <v>6.081779563242853</v>
       </c>
       <c r="E22">
-        <v>39.65220401541557</v>
+        <v>39.6612641198891</v>
       </c>
       <c r="F22">
-        <v>83.08140148289172</v>
+        <v>55.20015203280625</v>
       </c>
       <c r="G22">
-        <v>2.018208876805866</v>
+        <v>2.01799549018383</v>
       </c>
       <c r="H22">
-        <v>5.187829086509634</v>
+        <v>5.192950727496313</v>
       </c>
       <c r="I22">
-        <v>5.140100061090803</v>
+        <v>5.317053975957242</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>13.01478655940469</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1540,28 +1540,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.20893271165753</v>
+        <v>38.3363028547522</v>
       </c>
       <c r="C23">
-        <v>25.16305894123705</v>
+        <v>30.57376622537857</v>
       </c>
       <c r="D23">
-        <v>12.56410863771151</v>
+        <v>6.034294527975277</v>
       </c>
       <c r="E23">
-        <v>38.83252030482961</v>
+        <v>38.86161477420278</v>
       </c>
       <c r="F23">
-        <v>81.55397815487034</v>
+        <v>54.2361464001029</v>
       </c>
       <c r="G23">
-        <v>2.022918405131028</v>
+        <v>2.022226197195321</v>
       </c>
       <c r="H23">
-        <v>5.014325094539056</v>
+        <v>5.030911046414971</v>
       </c>
       <c r="I23">
-        <v>4.96347957896903</v>
+        <v>5.158508503327936</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>13.04675674622192</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1593,28 +1593,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.68185813993916</v>
+        <v>35.31861004282749</v>
       </c>
       <c r="C24">
-        <v>23.11238178875517</v>
+        <v>28.11630933623611</v>
       </c>
       <c r="D24">
-        <v>11.66976099974378</v>
+        <v>5.827425069724348</v>
       </c>
       <c r="E24">
-        <v>35.63223609375809</v>
+        <v>35.73341028950765</v>
       </c>
       <c r="F24">
-        <v>75.24053863113274</v>
+        <v>50.37637003397209</v>
       </c>
       <c r="G24">
-        <v>2.04088703992831</v>
+        <v>2.038380818390848</v>
       </c>
       <c r="H24">
-        <v>4.351378196554124</v>
+        <v>4.411048834133488</v>
       </c>
       <c r="I24">
-        <v>4.293550467567776</v>
+        <v>4.555896700817713</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>13.14098249754714</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -1646,28 +1646,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.76275660477796</v>
+        <v>31.81816931407905</v>
       </c>
       <c r="C25">
-        <v>20.79094544270774</v>
+        <v>25.29905695135953</v>
       </c>
       <c r="D25">
-        <v>10.65831984704363</v>
+        <v>5.596600415070315</v>
       </c>
       <c r="E25">
-        <v>31.97679880725834</v>
+        <v>32.14356109270349</v>
       </c>
       <c r="F25">
-        <v>68.04404505137312</v>
+        <v>46.01060943009153</v>
       </c>
       <c r="G25">
-        <v>2.060308407478158</v>
+        <v>2.055980476337377</v>
       </c>
       <c r="H25">
-        <v>3.628166126820007</v>
+        <v>3.730515494968214</v>
       </c>
       <c r="I25">
-        <v>3.571692568677724</v>
+        <v>3.901720770525965</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>13.2493814597989</v>
       </c>
       <c r="Q25">
         <v>0</v>

--- a/Code/Results/Cases/Case_10_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_10_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.12242425684365</v>
+        <v>13.53763771891263</v>
       </c>
       <c r="C2">
-        <v>23.02353161545612</v>
+        <v>6.199513960008479</v>
       </c>
       <c r="D2">
-        <v>5.457562313420514</v>
+        <v>3.954226846916716</v>
       </c>
       <c r="E2">
-        <v>29.30942974478529</v>
+        <v>6.773971770975407</v>
       </c>
       <c r="F2">
-        <v>42.83252900737337</v>
+        <v>29.97934993005955</v>
       </c>
       <c r="G2">
-        <v>2.069037592771776</v>
+        <v>38.87807289476248</v>
       </c>
       <c r="H2">
-        <v>3.219152413621614</v>
+        <v>3.708034791667394</v>
       </c>
       <c r="I2">
-        <v>3.413434991520969</v>
+        <v>4.354297875046891</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.9846763324642</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.21553777224091</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.896883554059844</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.713213136334621</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.17417327473268</v>
       </c>
       <c r="P2">
-        <v>13.37876734696289</v>
+        <v>6.742442901564003</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.1374243989585</v>
+        <v>12.70551908783703</v>
       </c>
       <c r="C3">
-        <v>21.40733941091886</v>
+        <v>5.767997945281874</v>
       </c>
       <c r="D3">
-        <v>5.337267986424786</v>
+        <v>3.772968807790953</v>
       </c>
       <c r="E3">
-        <v>27.25656006138376</v>
+        <v>6.610274882331854</v>
       </c>
       <c r="F3">
-        <v>40.45473511116975</v>
+        <v>29.59909651234133</v>
       </c>
       <c r="G3">
-        <v>2.078198967281577</v>
+        <v>38.42250476382809</v>
       </c>
       <c r="H3">
-        <v>2.859703050369023</v>
+        <v>3.918515541001359</v>
       </c>
       <c r="I3">
-        <v>3.074111969351026</v>
+        <v>4.516708774311137</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.90601213735635</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>21.14966052711654</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.298567556779922</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.659400543158153</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.4726284721487</v>
       </c>
       <c r="P3">
-        <v>13.44169929310584</v>
+        <v>6.536807562459937</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.87105930567509</v>
+        <v>12.16492568447488</v>
       </c>
       <c r="C4">
-        <v>20.36552448339359</v>
+        <v>5.493635889163494</v>
       </c>
       <c r="D4">
-        <v>5.260392023805906</v>
+        <v>3.659780309861191</v>
       </c>
       <c r="E4">
-        <v>25.9310335883985</v>
+        <v>6.506699149751989</v>
       </c>
       <c r="F4">
-        <v>38.9386664220199</v>
+        <v>29.36158847476113</v>
       </c>
       <c r="G4">
-        <v>2.083948925629955</v>
+        <v>38.13905981630013</v>
       </c>
       <c r="H4">
-        <v>2.633168838164859</v>
+        <v>4.052509124423864</v>
       </c>
       <c r="I4">
-        <v>2.861811536839314</v>
+        <v>4.620747820318504</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.85582189048211</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>21.10643330844759</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.577281303713981</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.624836504404398</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.01810880459517</v>
       </c>
       <c r="P4">
-        <v>13.48005957020183</v>
+        <v>6.409124967803541</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.32578769390431</v>
+        <v>11.93530794235205</v>
       </c>
       <c r="C5">
-        <v>19.93426239784606</v>
+        <v>5.386182991038966</v>
       </c>
       <c r="D5">
-        <v>5.224182377235195</v>
+        <v>3.615897411133949</v>
       </c>
       <c r="E5">
-        <v>25.37362898793707</v>
+        <v>6.462957003193439</v>
       </c>
       <c r="F5">
-        <v>38.28229444321997</v>
+        <v>29.24782696618177</v>
       </c>
       <c r="G5">
-        <v>2.086343736601319</v>
+        <v>37.99522450346136</v>
       </c>
       <c r="H5">
-        <v>2.538891211510318</v>
+        <v>4.108735459041375</v>
       </c>
       <c r="I5">
-        <v>2.774232242323455</v>
+        <v>4.666912146732032</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.82941722113972</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21.07611381082141</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.699506027768603</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.609455437088396</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.828507655029464</v>
       </c>
       <c r="P5">
-        <v>13.49076358101514</v>
+        <v>6.358533612993661</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.21926499381419</v>
+        <v>11.89440518473269</v>
       </c>
       <c r="C6">
-        <v>19.86909335459384</v>
+        <v>5.376360585314437</v>
       </c>
       <c r="D6">
-        <v>5.213083032900629</v>
+        <v>3.611823386615923</v>
       </c>
       <c r="E6">
-        <v>25.27925579919151</v>
+        <v>6.454689589865987</v>
       </c>
       <c r="F6">
-        <v>38.14214131045867</v>
+        <v>29.20933096120564</v>
       </c>
       <c r="G6">
-        <v>2.086765773327855</v>
+        <v>37.93782320932942</v>
       </c>
       <c r="H6">
-        <v>2.522620236960007</v>
+        <v>4.118645396417989</v>
       </c>
       <c r="I6">
-        <v>2.759813657969449</v>
+        <v>4.678051661147102</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.81830831215176</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21.05638581704892</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.721389712372138</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.605766299971812</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.798583243563311</v>
       </c>
       <c r="P6">
-        <v>13.48663518098441</v>
+        <v>6.352238562189442</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.82386594742595</v>
+        <v>12.15709378896154</v>
       </c>
       <c r="C7">
-        <v>20.37891803677698</v>
+        <v>5.508664988613812</v>
       </c>
       <c r="D7">
-        <v>5.24621841167165</v>
+        <v>3.675105184114273</v>
       </c>
       <c r="E7">
-        <v>25.92137325416789</v>
+        <v>6.505062544179737</v>
       </c>
       <c r="F7">
-        <v>38.84853422600711</v>
+        <v>29.27762769180554</v>
       </c>
       <c r="G7">
-        <v>2.084041586545941</v>
+        <v>38.09178850826496</v>
       </c>
       <c r="H7">
-        <v>2.630487630487425</v>
+        <v>4.055323260950629</v>
       </c>
       <c r="I7">
-        <v>2.860669597260886</v>
+        <v>4.631037123369952</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.78863150381802</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21.04761850072957</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.583262216348688</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.620759494002288</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.01911041775366</v>
       </c>
       <c r="P7">
-        <v>13.46411645950251</v>
+        <v>6.414532367566726</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.39101441007527</v>
+        <v>13.25361892700863</v>
       </c>
       <c r="C8">
-        <v>22.49958675012746</v>
+        <v>6.06319397851192</v>
       </c>
       <c r="D8">
-        <v>5.398999121240402</v>
+        <v>3.926035381514317</v>
       </c>
       <c r="E8">
-        <v>28.61202614888293</v>
+        <v>6.719938383405929</v>
       </c>
       <c r="F8">
-        <v>41.92355994330617</v>
+        <v>29.6866410039483</v>
       </c>
       <c r="G8">
-        <v>2.072250082095517</v>
+        <v>38.75382354665531</v>
       </c>
       <c r="H8">
-        <v>3.094540212180184</v>
+        <v>3.78351526316846</v>
       </c>
       <c r="I8">
-        <v>3.296299062931547</v>
+        <v>4.422826070601651</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.77779657555878</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21.08233207685036</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.03648187947188</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.688448111111859</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.93867940719243</v>
       </c>
       <c r="P8">
-        <v>13.3793457196131</v>
+        <v>6.680351909217648</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.0895634734422</v>
+        <v>15.17210332877341</v>
       </c>
       <c r="C9">
-        <v>26.24400022884295</v>
+        <v>7.057661439592597</v>
       </c>
       <c r="D9">
-        <v>5.698493296056921</v>
+        <v>4.358844745506235</v>
       </c>
       <c r="E9">
-        <v>33.386799994948</v>
+        <v>7.114809768822147</v>
       </c>
       <c r="F9">
-        <v>47.63182860177298</v>
+        <v>30.65425635261146</v>
       </c>
       <c r="G9">
-        <v>2.049914329690132</v>
+        <v>40.01119581137482</v>
       </c>
       <c r="H9">
-        <v>3.964171270026597</v>
+        <v>3.282668255415205</v>
       </c>
       <c r="I9">
-        <v>4.12457982399691</v>
+        <v>4.031157734736956</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.94821831128275</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.26518776834019</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.225961621678854</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.817433719552905</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.55019535409912</v>
       </c>
       <c r="P9">
-        <v>13.24067711716932</v>
+        <v>7.176542483296906</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.0434723756846</v>
+        <v>16.43323704091566</v>
       </c>
       <c r="C10">
-        <v>28.63441750164197</v>
+        <v>7.747578829501256</v>
       </c>
       <c r="D10">
-        <v>5.830995088903073</v>
+        <v>4.684905835802251</v>
       </c>
       <c r="E10">
-        <v>35.71059044858454</v>
+        <v>7.316730753637192</v>
       </c>
       <c r="F10">
-        <v>51.13791178948935</v>
+        <v>30.94541490661137</v>
       </c>
       <c r="G10">
-        <v>2.034521241778429</v>
+        <v>40.78442416557953</v>
       </c>
       <c r="H10">
-        <v>4.534438610626464</v>
+        <v>2.965744655556339</v>
       </c>
       <c r="I10">
-        <v>4.698664340282644</v>
+        <v>3.777148190386227</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.7353387995069</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.13560540684109</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.84063721711708</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.871297047551637</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.61760675005029</v>
       </c>
       <c r="P10">
-        <v>13.06500675699586</v>
+        <v>7.462382233844908</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.02269999258484</v>
+        <v>16.91645261950274</v>
       </c>
       <c r="C11">
-        <v>28.45708531374927</v>
+        <v>8.245115484350681</v>
       </c>
       <c r="D11">
-        <v>5.314150617902084</v>
+        <v>4.755664663769324</v>
       </c>
       <c r="E11">
-        <v>29.16197763703897</v>
+        <v>6.780912941230478</v>
       </c>
       <c r="F11">
-        <v>49.38345475826942</v>
+        <v>28.84425852476521</v>
       </c>
       <c r="G11">
-        <v>2.03254108020656</v>
+        <v>38.50116482271743</v>
       </c>
       <c r="H11">
-        <v>4.85817995592064</v>
+        <v>3.649573234100403</v>
       </c>
       <c r="I11">
-        <v>4.774015261544365</v>
+        <v>3.732658050722883</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.67950190136247</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.71911187583923</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.820400204931086</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.690565146847168</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.10871036118121</v>
       </c>
       <c r="P11">
-        <v>12.41367954742661</v>
+        <v>6.993939870868478</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.45132614581257</v>
+        <v>17.07037675654357</v>
       </c>
       <c r="C12">
-        <v>27.80348711356223</v>
+        <v>8.518244258858596</v>
       </c>
       <c r="D12">
-        <v>4.902634528648329</v>
+        <v>4.710630517896586</v>
       </c>
       <c r="E12">
-        <v>23.22781200176598</v>
+        <v>6.357097418495748</v>
       </c>
       <c r="F12">
-        <v>47.2578856750118</v>
+        <v>27.18869713024652</v>
       </c>
       <c r="G12">
-        <v>2.033596121678061</v>
+        <v>36.36745554965184</v>
       </c>
       <c r="H12">
-        <v>5.582613299285839</v>
+        <v>4.793305306113362</v>
       </c>
       <c r="I12">
-        <v>4.732397001373103</v>
+        <v>3.725880487823826</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.06472233248523</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.70886773639828</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.852865709557596</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.602201993320238</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.30604451029844</v>
       </c>
       <c r="P12">
-        <v>11.97410097664093</v>
+        <v>6.539099161515355</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.36056989042019</v>
+        <v>16.97569439645356</v>
       </c>
       <c r="C13">
-        <v>26.74867764636883</v>
+        <v>8.681547786795338</v>
       </c>
       <c r="D13">
-        <v>4.535521992404589</v>
+        <v>4.569279075046728</v>
       </c>
       <c r="E13">
-        <v>17.30423646035947</v>
+        <v>6.001862756140749</v>
       </c>
       <c r="F13">
-        <v>44.55714983913662</v>
+        <v>25.74299744605456</v>
       </c>
       <c r="G13">
-        <v>2.037103107177901</v>
+        <v>33.97222502881231</v>
       </c>
       <c r="H13">
-        <v>6.5172900259235</v>
+        <v>6.084143258384094</v>
       </c>
       <c r="I13">
-        <v>4.598145302969217</v>
+        <v>3.761814782199726</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.75709513430893</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.91819569369515</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.918993339399494</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.573375688424735</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.30445804258926</v>
       </c>
       <c r="P13">
-        <v>11.65383825406395</v>
+        <v>6.073150656139552</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.34101321820851</v>
+        <v>16.79429952325565</v>
       </c>
       <c r="C14">
-        <v>25.82294158201565</v>
+        <v>8.754814992861057</v>
       </c>
       <c r="D14">
-        <v>4.309114174977028</v>
+        <v>4.428505901538647</v>
       </c>
       <c r="E14">
-        <v>13.23754183903135</v>
+        <v>5.807660136465466</v>
       </c>
       <c r="F14">
-        <v>42.3561915673402</v>
+        <v>24.8079817836018</v>
       </c>
       <c r="G14">
-        <v>2.040608279471432</v>
+        <v>32.17555422045893</v>
       </c>
       <c r="H14">
-        <v>7.264252431868699</v>
+        <v>7.032828879644749</v>
       </c>
       <c r="I14">
-        <v>4.464898670560597</v>
+        <v>3.809120851305376</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.65063732055013</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.45445870598309</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.98178140202776</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.586952944916417</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.21464290394986</v>
       </c>
       <c r="P14">
-        <v>11.49213779797367</v>
+        <v>5.7480563652438</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.9648862501232</v>
+        <v>16.69463712150355</v>
       </c>
       <c r="C15">
-        <v>25.51230040168827</v>
+        <v>8.755896710264157</v>
       </c>
       <c r="D15">
-        <v>4.257088291712681</v>
+        <v>4.378097823687144</v>
       </c>
       <c r="E15">
-        <v>12.24706028960986</v>
+        <v>5.765888996791911</v>
       </c>
       <c r="F15">
-        <v>41.66581721299364</v>
+        <v>24.59971643557605</v>
       </c>
       <c r="G15">
-        <v>2.042053549585688</v>
+        <v>31.67103564934776</v>
       </c>
       <c r="H15">
-        <v>7.433725654074647</v>
+        <v>7.258498085554661</v>
       </c>
       <c r="I15">
-        <v>4.411213507189735</v>
+        <v>3.834627564710999</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.66481120614183</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.36609407486592</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.007869956249367</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.592662193339277</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.15105567580964</v>
       </c>
       <c r="P15">
-        <v>11.46914446365359</v>
+        <v>5.667335322511616</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.87608673764142</v>
+        <v>16.18098767318559</v>
       </c>
       <c r="C16">
-        <v>24.67704261173039</v>
+        <v>8.505085574861184</v>
       </c>
       <c r="D16">
-        <v>4.270210178006453</v>
+        <v>4.217203621823772</v>
       </c>
       <c r="E16">
-        <v>11.94105676579287</v>
+        <v>5.738167869885462</v>
       </c>
       <c r="F16">
-        <v>40.52409631443208</v>
+        <v>24.90243682917471</v>
       </c>
       <c r="G16">
-        <v>2.047802731150009</v>
+        <v>31.37892475783689</v>
       </c>
       <c r="H16">
-        <v>7.12150906140563</v>
+        <v>7.096937403907923</v>
       </c>
       <c r="I16">
-        <v>4.199051954891138</v>
+        <v>3.937774958559585</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.06220696186918</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.65299047146288</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.118659291251769</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.566214908643865</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.72946132026425</v>
       </c>
       <c r="P16">
-        <v>11.6109875496389</v>
+        <v>5.631859736365802</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.59081828550146</v>
+        <v>15.88083773318814</v>
       </c>
       <c r="C17">
-        <v>24.54023630133161</v>
+        <v>8.259985499081635</v>
       </c>
       <c r="D17">
-        <v>4.392134655494539</v>
+        <v>4.178919674690633</v>
       </c>
       <c r="E17">
-        <v>13.92327043899569</v>
+        <v>5.806796675139764</v>
       </c>
       <c r="F17">
-        <v>40.8602284027189</v>
+        <v>25.60785756923538</v>
       </c>
       <c r="G17">
-        <v>2.050415076146294</v>
+        <v>32.1604730952592</v>
       </c>
       <c r="H17">
-        <v>6.426382675262424</v>
+        <v>6.445733964951272</v>
       </c>
       <c r="I17">
-        <v>4.104955505081555</v>
+        <v>3.993141390250772</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.40801849430236</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.10767957963442</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.179616540740554</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.535011057144478</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.44708202159999</v>
       </c>
       <c r="P17">
-        <v>11.7975146447877</v>
+        <v>5.776494184210493</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.01266221312296</v>
+        <v>15.73929534973862</v>
       </c>
       <c r="C18">
-        <v>24.99574270966277</v>
+        <v>7.989840772138554</v>
       </c>
       <c r="D18">
-        <v>4.659682672957626</v>
+        <v>4.221810208151328</v>
       </c>
       <c r="E18">
-        <v>18.43728141267208</v>
+        <v>6.025500816609831</v>
       </c>
       <c r="F18">
-        <v>42.57297928984077</v>
+        <v>26.84774222914761</v>
       </c>
       <c r="G18">
-        <v>2.050369575357616</v>
+        <v>33.94461280017333</v>
       </c>
       <c r="H18">
-        <v>5.417158518650544</v>
+        <v>5.353587461055407</v>
       </c>
       <c r="I18">
-        <v>4.10792768057442</v>
+        <v>4.00076643372096</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.83323239758051</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.84222238180649</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.184087390794664</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.532518766452705</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.25795986230223</v>
       </c>
       <c r="P18">
-        <v>12.08228754755286</v>
+        <v>6.101982542092093</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.91428265727141</v>
+        <v>15.72675758174697</v>
       </c>
       <c r="C19">
-        <v>25.92709831785335</v>
+        <v>7.769845261246175</v>
       </c>
       <c r="D19">
-        <v>5.046921090650943</v>
+        <v>4.332680574233537</v>
       </c>
       <c r="E19">
-        <v>24.73815109591906</v>
+        <v>6.422719019734084</v>
       </c>
       <c r="F19">
-        <v>45.11864271034842</v>
+        <v>28.38792486738125</v>
       </c>
       <c r="G19">
-        <v>2.04795465780415</v>
+        <v>36.26125813759754</v>
       </c>
       <c r="H19">
-        <v>4.505350713937855</v>
+        <v>4.14724985946695</v>
       </c>
       <c r="I19">
-        <v>4.201341048233777</v>
+        <v>3.984813856610404</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.3037619033107</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.73929354026622</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.135175650162259</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.602621196290633</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.1709438866055</v>
       </c>
       <c r="P19">
-        <v>12.44996205798263</v>
+        <v>6.573670209378772</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.18532413088438</v>
+        <v>16.09234701747052</v>
       </c>
       <c r="C20">
-        <v>28.05782744234055</v>
+        <v>7.643679868526551</v>
       </c>
       <c r="D20">
-        <v>5.75501748214636</v>
+        <v>4.600718261546727</v>
       </c>
       <c r="E20">
-        <v>35.0635044301351</v>
+        <v>7.248940039094412</v>
       </c>
       <c r="F20">
-        <v>50.01271585242392</v>
+        <v>30.80801664504441</v>
       </c>
       <c r="G20">
-        <v>2.038744722034453</v>
+        <v>40.16442972777447</v>
       </c>
       <c r="H20">
-        <v>4.378823149754055</v>
+        <v>3.04900372644197</v>
       </c>
       <c r="I20">
-        <v>4.545497348120654</v>
+        <v>3.870647413883109</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.89566823066996</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.11381192415468</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.932421532694307</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.850882871015893</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.36232285332688</v>
       </c>
       <c r="P20">
-        <v>13.05914361158725</v>
+        <v>7.399680633122376</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.60410681397683</v>
+        <v>17.06356314008971</v>
       </c>
       <c r="C21">
-        <v>30.04120099125489</v>
+        <v>8.026007992126887</v>
       </c>
       <c r="D21">
-        <v>5.965210850010251</v>
+        <v>4.978116268181901</v>
       </c>
       <c r="E21">
-        <v>38.14978486046395</v>
+        <v>7.550925617419013</v>
       </c>
       <c r="F21">
-        <v>53.24885792036237</v>
+        <v>30.91938147986342</v>
       </c>
       <c r="G21">
-        <v>2.026048842488905</v>
+        <v>42.15086639868376</v>
       </c>
       <c r="H21">
-        <v>4.886079521493445</v>
+        <v>2.782155923645417</v>
       </c>
       <c r="I21">
-        <v>5.01815482679849</v>
+        <v>3.676157976610495</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.06029464545519</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.93653021684837</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.701960614995695</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.922962239688007</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.11344235541329</v>
       </c>
       <c r="P21">
-        <v>13.03976532144044</v>
+        <v>7.726948547506869</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.08938018609194</v>
+        <v>17.67915737896303</v>
       </c>
       <c r="C22">
-        <v>31.20984196780294</v>
+        <v>8.256162330407363</v>
       </c>
       <c r="D22">
-        <v>6.081779563242853</v>
+        <v>5.210205809363332</v>
       </c>
       <c r="E22">
-        <v>39.6612641198891</v>
+        <v>7.710087966475355</v>
       </c>
       <c r="F22">
-        <v>55.20015203280625</v>
+        <v>30.89952670630564</v>
       </c>
       <c r="G22">
-        <v>2.01799549018383</v>
+        <v>43.44397248992774</v>
       </c>
       <c r="H22">
-        <v>5.192950727496313</v>
+        <v>2.622185593189562</v>
       </c>
       <c r="I22">
-        <v>5.317053975957242</v>
+        <v>3.54279838087222</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.48796827927604</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.77118140209276</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.59579927345203</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.95702512541268</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.58040467493531</v>
       </c>
       <c r="P22">
-        <v>13.01478655940469</v>
+        <v>7.89536996751229</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.3363028547522</v>
+        <v>17.35678946813698</v>
       </c>
       <c r="C23">
-        <v>30.57376622537857</v>
+        <v>8.124406748595165</v>
       </c>
       <c r="D23">
-        <v>6.034294527975277</v>
+        <v>5.062797444392192</v>
       </c>
       <c r="E23">
-        <v>38.86161477420278</v>
+        <v>7.623900704314685</v>
       </c>
       <c r="F23">
-        <v>54.2361464001029</v>
+        <v>31.03069822062508</v>
       </c>
       <c r="G23">
-        <v>2.022226197195321</v>
+        <v>42.73013330750904</v>
       </c>
       <c r="H23">
-        <v>5.030911046414971</v>
+        <v>2.704870321331631</v>
       </c>
       <c r="I23">
-        <v>5.158508503327936</v>
+        <v>3.600961481375396</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.906361242027</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.94278749417066</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.643627408626463</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.943555666656089</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.33144621318799</v>
       </c>
       <c r="P23">
-        <v>13.04675674622192</v>
+        <v>7.799130139299883</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.31861004282749</v>
+        <v>16.09111928427437</v>
       </c>
       <c r="C24">
-        <v>28.11630933623611</v>
+        <v>7.584209604026704</v>
       </c>
       <c r="D24">
-        <v>5.827425069724348</v>
+        <v>4.595523788545477</v>
       </c>
       <c r="E24">
-        <v>35.73341028950765</v>
+        <v>7.31142542799372</v>
       </c>
       <c r="F24">
-        <v>50.37637003397209</v>
+        <v>31.06409970962119</v>
       </c>
       <c r="G24">
-        <v>2.038380818390848</v>
+        <v>40.55637717613598</v>
       </c>
       <c r="H24">
-        <v>4.411048834133488</v>
+        <v>3.032145129133903</v>
       </c>
       <c r="I24">
-        <v>4.555896700817713</v>
+        <v>3.851270755802858</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.9840689381703</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.28649058758319</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.92283957273537</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.876787618962116</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.33889838070612</v>
       </c>
       <c r="P24">
-        <v>13.14098249754714</v>
+        <v>7.442079863044393</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.81816931407905</v>
+        <v>14.66726908804727</v>
       </c>
       <c r="C25">
-        <v>25.29905695135953</v>
+        <v>6.838835261442483</v>
       </c>
       <c r="D25">
-        <v>5.596600415070315</v>
+        <v>4.2488723940006</v>
       </c>
       <c r="E25">
-        <v>32.14356109270349</v>
+        <v>7.004455560576267</v>
       </c>
       <c r="F25">
-        <v>46.01060943009153</v>
+        <v>30.34734428081375</v>
       </c>
       <c r="G25">
-        <v>2.055980476337377</v>
+        <v>39.46159663078578</v>
       </c>
       <c r="H25">
-        <v>3.730515494968214</v>
+        <v>3.415538660205923</v>
       </c>
       <c r="I25">
-        <v>3.901720770525965</v>
+        <v>4.148942225077419</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.93894778848793</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.17651197825034</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.416885603898589</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.780050468878062</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.14433289983272</v>
       </c>
       <c r="P25">
-        <v>13.2493814597989</v>
+        <v>7.053354575364414</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
